--- a/files/system/import-wires-facts-and-figure-sample.xlsx
+++ b/files/system/import-wires-facts-and-figure-sample.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Wire</t>
   </si>
@@ -47,7 +47,28 @@
     <t>Luffing #3</t>
   </si>
   <si>
-    <t>Crane #3</t>
+    <t>Crane CBB450</t>
+  </si>
+  <si>
+    <t>Luffing #4</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Installed</t>
+  </si>
+  <si>
+    <t>Wire Exchange</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M3</t>
   </si>
 </sst>
 </file>
@@ -99,11 +120,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,20 +474,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ3"/>
+  <dimension ref="A1:AMJ4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="1" customWidth="1"/>
-    <col min="6" max="1009" width="9.140625" style="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="1009" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -483,6 +508,15 @@
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="ALV1"/>
       <c r="ALW1"/>
@@ -516,10 +550,19 @@
       <c r="E2" s="1">
         <v>450</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4">
+        <v>40172</v>
+      </c>
+      <c r="H2" s="4">
+        <v>39815</v>
+      </c>
     </row>
     <row r="3" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -532,6 +575,41 @@
       </c>
       <c r="E3" s="1">
         <v>300</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4">
+        <v>37245</v>
+      </c>
+      <c r="H3" s="4">
+        <v>42221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1">
+        <v>90</v>
+      </c>
+      <c r="E4" s="1">
+        <v>200</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="4">
+        <v>36514</v>
+      </c>
+      <c r="H4" s="4">
+        <v>44185</v>
       </c>
     </row>
   </sheetData>
